--- a/SOURCE/Admin/MyAdmin/Inside/MyAdmin/App_Data/Excel/061116_testimport.xlsx
+++ b/SOURCE/Admin/MyAdmin/Inside/MyAdmin/App_Data/Excel/061116_testimport.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="3">
   <si>
     <t>VN616A P1R6</t>
   </si>
@@ -45,7 +45,7 @@
     <numFmt numFmtId="165" formatCode="&quot;M&quot;0"/>
     <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -71,12 +71,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FFFF0000"/>
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
@@ -144,7 +138,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -177,12 +171,6 @@
     <xf numFmtId="166" fontId="4" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -465,10 +453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -490,14 +478,14 @@
         <v>16</v>
       </c>
       <c r="F1" s="5">
-        <v>10450</v>
+        <v>5450</v>
       </c>
       <c r="G1" s="6">
         <v>1</v>
       </c>
       <c r="H1" s="7">
-        <f t="shared" ref="H1:H8" si="0">E1*E1*F1*3.14/4*0.00000785*G1*1.01</f>
-        <v>16.650103712</v>
+        <f t="shared" ref="H1:H2" si="0">E1*E1*F1*3.14/4*0.00000785*G1*1.01</f>
+        <v>8.6835469119999988</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -517,14 +505,14 @@
         <v>16</v>
       </c>
       <c r="F2" s="8">
-        <v>10600</v>
+        <v>8600</v>
       </c>
       <c r="G2" s="9">
         <v>1</v>
       </c>
       <c r="H2" s="7">
         <f t="shared" si="0"/>
-        <v>16.889100416000002</v>
+        <v>13.702477695999999</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -544,14 +532,14 @@
         <v>16</v>
       </c>
       <c r="F3" s="8">
-        <v>10800</v>
+        <v>1000</v>
       </c>
       <c r="G3" s="9">
         <v>3</v>
       </c>
       <c r="H3" s="7">
         <f>E3*E3*F3*3.14/4*0.00000785*G3*1.01</f>
-        <v>51.623288063999993</v>
+        <v>4.7799340799999994</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -571,14 +559,14 @@
         <v>16</v>
       </c>
       <c r="F4" s="8">
-        <v>10900</v>
+        <v>6000</v>
       </c>
       <c r="G4" s="9">
         <v>2</v>
       </c>
       <c r="H4" s="7">
         <f>E4*E4*F4*3.14/4*0.00000785*G4*1.01</f>
-        <v>34.734187647999995</v>
+        <v>19.119736320000001</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -598,14 +586,14 @@
         <v>16</v>
       </c>
       <c r="F5" s="8">
-        <v>11000</v>
+        <v>5000</v>
       </c>
       <c r="G5" s="9">
         <v>2</v>
       </c>
       <c r="H5" s="7">
         <f>E5*E5*F5*3.14/4*0.00000785*G5*1.01</f>
-        <v>35.052849919999993</v>
+        <v>15.933113599999999</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -631,7 +619,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="7">
-        <f t="shared" ref="H6:H17" si="1">E6*E6*F6*3.14/4*0.00000785*G6*1.01</f>
+        <f t="shared" ref="H6" si="1">E6*E6*F6*3.14/4*0.00000785*G6*1.01</f>
         <v>17.765421663999998</v>
       </c>
     </row>
@@ -652,14 +640,14 @@
         <v>16</v>
       </c>
       <c r="F7" s="8">
-        <v>11650</v>
+        <v>11150</v>
       </c>
       <c r="G7" s="9">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H7" s="7">
-        <f t="shared" si="1"/>
-        <v>111.37246406399998</v>
+        <f t="shared" ref="H7" si="2">E7*E7*F7*3.14/4*0.00000785*G7*1.01</f>
+        <v>17.765421663999998</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -679,14 +667,14 @@
         <v>16</v>
       </c>
       <c r="F8" s="8">
-        <v>11700</v>
+        <v>10000</v>
       </c>
       <c r="G8" s="9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H8" s="7">
-        <f t="shared" si="1"/>
-        <v>74.566971647999992</v>
+        <f t="shared" ref="H8:H13" si="3">E8*E8*F8*3.14/4*0.00000785*G8*1.01</f>
+        <v>15.933113599999999</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -705,15 +693,15 @@
       <c r="E9" s="4">
         <v>16</v>
       </c>
-      <c r="F9" s="10">
-        <v>7750</v>
+      <c r="F9" s="8">
+        <v>9000</v>
       </c>
       <c r="G9" s="9">
         <v>1</v>
       </c>
       <c r="H9" s="7">
-        <f t="shared" si="1"/>
-        <v>12.348163039999999</v>
+        <f t="shared" si="3"/>
+        <v>14.339802239999999</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -732,15 +720,15 @@
       <c r="E10" s="4">
         <v>16</v>
       </c>
-      <c r="F10" s="10">
-        <v>7850</v>
+      <c r="F10" s="8">
+        <v>11150</v>
       </c>
       <c r="G10" s="9">
         <v>1</v>
       </c>
       <c r="H10" s="7">
-        <f t="shared" si="1"/>
-        <v>12.507494176</v>
+        <f t="shared" si="3"/>
+        <v>17.765421663999998</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -759,15 +747,15 @@
       <c r="E11" s="4">
         <v>16</v>
       </c>
-      <c r="F11" s="10">
-        <v>8400</v>
+      <c r="F11" s="8">
+        <v>2000</v>
       </c>
       <c r="G11" s="9">
         <v>1</v>
       </c>
       <c r="H11" s="7">
-        <f t="shared" si="1"/>
-        <v>13.383815423999998</v>
+        <f t="shared" si="3"/>
+        <v>3.1866227199999995</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -786,15 +774,15 @@
       <c r="E12" s="4">
         <v>16</v>
       </c>
-      <c r="F12" s="10">
-        <v>8500</v>
+      <c r="F12" s="8">
+        <v>13000</v>
       </c>
       <c r="G12" s="9">
         <v>1</v>
       </c>
-      <c r="H12" s="11">
-        <f t="shared" si="1"/>
-        <v>13.54314656</v>
+      <c r="H12" s="7">
+        <f t="shared" si="3"/>
+        <v>20.713047679999999</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -813,123 +801,15 @@
       <c r="E13" s="4">
         <v>16</v>
       </c>
-      <c r="F13" s="10">
-        <v>8600</v>
+      <c r="F13" s="8">
+        <v>6000</v>
       </c>
       <c r="G13" s="9">
         <v>1</v>
       </c>
       <c r="H13" s="7">
-        <f t="shared" si="1"/>
-        <v>13.702477695999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>44</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E14" s="4">
-        <v>16</v>
-      </c>
-      <c r="F14" s="10">
-        <v>8700</v>
-      </c>
-      <c r="G14" s="9">
-        <v>2</v>
-      </c>
-      <c r="H14" s="7">
-        <f t="shared" si="1"/>
-        <v>27.723617663999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>45</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E15" s="4">
-        <v>16</v>
-      </c>
-      <c r="F15" s="10">
-        <v>8800</v>
-      </c>
-      <c r="G15" s="9">
-        <v>3</v>
-      </c>
-      <c r="H15" s="7">
-        <f t="shared" si="1"/>
-        <v>42.063419903999993</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>46</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E16" s="4">
-        <v>16</v>
-      </c>
-      <c r="F16" s="10">
-        <v>9200</v>
-      </c>
-      <c r="G16" s="9">
-        <v>2</v>
-      </c>
-      <c r="H16" s="7">
-        <f t="shared" si="1"/>
-        <v>29.316929024</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>47</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E17" s="4">
-        <v>16</v>
-      </c>
-      <c r="F17" s="10">
-        <v>9700</v>
-      </c>
-      <c r="G17" s="9">
-        <v>2</v>
-      </c>
-      <c r="H17" s="7">
-        <f t="shared" si="1"/>
-        <v>30.910240383999998</v>
+        <f t="shared" si="3"/>
+        <v>9.5598681600000006</v>
       </c>
     </row>
   </sheetData>
